--- a/config_5.25/game_module_config_cjj.xlsx
+++ b/config_5.25/game_module_config_cjj.xlsx
@@ -3253,7 +3253,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>幸运福袋</t>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3750,13 +3750,13 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>爱消福利</t>
+    <t>消除福利</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>2021年5月24日 23:59:59</t>
+    <t>2021年5月30日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3811,10 +3811,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3910,54 +3910,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -3974,9 +3926,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3990,8 +4001,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3999,22 +4011,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4030,14 +4026,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4045,11 +4033,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4121,7 +4121,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,7 +4157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,7 +4169,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4157,7 +4235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4175,19 +4253,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4199,97 +4283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4342,6 +4342,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4359,18 +4368,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4407,11 +4409,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4423,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,19 +4435,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4456,116 +4456,116 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5057,11 +5057,11 @@
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C311" sqref="C311"/>
+      <selection pane="bottomRight" activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12049,13 +12049,13 @@
         <v>795</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="31" t="s">
         <v>796</v>
@@ -13191,13 +13191,13 @@
         <v>917</v>
       </c>
       <c r="E314" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F314" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" s="36" t="s">
         <v>912</v>
@@ -13547,13 +13547,13 @@
         <v>958</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" s="18" t="s">
         <v>959</v>

--- a/config_5.25/game_module_config_cjj.xlsx
+++ b/config_5.25/game_module_config_cjj.xlsx
@@ -3253,7 +3253,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>话费礼包</t>
+    <t>幸运福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3541,7 +3541,7 @@
     </r>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <t>act_ty_sjb_style/act_016_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
@@ -3811,10 +3811,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3904,7 +3904,114 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3918,112 +4025,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -4032,11 +4033,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4121,7 +4121,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,7 +4163,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,103 +4271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4254,42 +4290,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4318,15 +4318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4338,15 +4329,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4368,11 +4350,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4410,8 +4410,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4423,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,133 +4435,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5057,11 +5057,11 @@
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F331" sqref="F331"/>
+      <selection pane="bottomRight" activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12381,13 +12381,13 @@
         <v>834</v>
       </c>
       <c r="E288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" s="36" t="s">
         <v>721</v>

--- a/config_5.25/game_module_config_cjj.xlsx
+++ b/config_5.25/game_module_config_cjj.xlsx
@@ -3544,22 +3544,22 @@
     <t>act_ty_sjb_style/act_016_dlphb</t>
   </si>
   <si>
-    <t>掉落排行榜皮肤（铁锤）</t>
+    <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-  </si>
-  <si>
-    <t>五星掉落</t>
+    <t>act_ty_by_drop_style/act_016_huanle</t>
+  </si>
+  <si>
+    <t>欢乐券掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <t>act_ty_by_hhl_style/act_011_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3738,10 +3738,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-  </si>
-  <si>
-    <t>龙腾礼包</t>
+    <t>act_ty_gifts_style/act_003_hflb</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3811,10 +3811,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3904,7 +3904,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3917,8 +3966,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3932,30 +3990,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3963,14 +4007,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3986,18 +4030,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4007,49 +4050,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4121,7 +4121,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,31 +4259,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4169,121 +4283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4319,16 +4319,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4348,6 +4348,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4359,11 +4374,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4373,21 +4386,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4409,9 +4407,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4423,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,137 +4435,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5057,11 +5057,11 @@
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C337" sqref="C337"/>
+      <selection pane="bottomRight" activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_5.25/game_module_config_cjj.xlsx
+++ b/config_5.25/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="985">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3768,13 +3768,16 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t>act_cjj_by_byam_guide</t>
@@ -3811,10 +3814,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3903,6 +3906,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3918,16 +3952,40 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3939,28 +3997,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3974,9 +4011,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3999,37 +4036,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -4038,18 +4044,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4121,49 +4124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4175,19 +4148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4199,7 +4160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4223,7 +4184,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4241,13 +4256,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4259,31 +4280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4319,36 +4322,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4374,9 +4347,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4386,6 +4385,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4404,17 +4418,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4423,10 +4426,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,137 +4438,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5061,7 +5064,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C324" sqref="C324"/>
+      <selection pane="bottomRight" activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13648,13 +13651,13 @@
         <v>972</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332" t="s">
         <v>973</v>
@@ -13680,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="334" ht="16.5" spans="1:7">
@@ -13688,13 +13691,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C334" s="54" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -13711,13 +13714,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C335" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D335" s="52" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E335" s="5">
         <v>0</v>
@@ -13729,7 +13732,7 @@
         <v>0</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -13759,7 +13762,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.25/game_module_config_cjj.xlsx
+++ b/config_5.25/game_module_config_cjj.xlsx
@@ -3814,10 +3814,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3906,61 +3906,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3973,6 +3920,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3980,11 +3944,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4003,25 +3982,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4036,15 +4020,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4124,7 +4124,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4136,157 +4274,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4345,36 +4345,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4404,16 +4384,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4426,10 +4426,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4438,133 +4438,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5064,7 +5064,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B332" sqref="B332"/>
+      <selection pane="bottomRight" activeCell="C312" sqref="C312:H312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13148,13 +13148,13 @@
         <v>911</v>
       </c>
       <c r="E312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" s="36" t="s">
         <v>912</v>
@@ -13171,13 +13171,13 @@
         <v>914</v>
       </c>
       <c r="E313" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F313" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" s="36" t="s">
         <v>915</v>
